--- a/Data_Final/Events.xlsx
+++ b/Data_Final/Events.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzpfeifer/Dropbox/Divergence-Monitor/Divergence_Monitor/Data_Final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzpfeifer/Library/CloudStorage/Dropbox/Divergence-Monitor/Divergence_Monitor/Data_Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7652838C-71BD-9042-9FB3-5392232D5B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0427792-F550-3C40-B8C1-488357A4044B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,9 +104,6 @@
     <t>UMP_Long</t>
   </si>
   <si>
-    <t>ESM_Long</t>
-  </si>
-  <si>
     <t>BE, FR, DE, IE, IT, LU, NL</t>
   </si>
   <si>
@@ -125,7 +122,10 @@
     <t>HR, BG</t>
   </si>
   <si>
-    <t>ESM_Short</t>
+    <t>ERM_Short</t>
+  </si>
+  <si>
+    <t>ERM_Long</t>
   </si>
 </sst>
 </file>
@@ -160,15 +160,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,7 +386,7 @@
   <dimension ref="A1:E999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -402,16 +401,16 @@
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -420,76 +419,65 @@
         <v>29221</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>29587</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>31413</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>34700</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>37987</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>40456</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -497,11 +485,10 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -509,11 +496,10 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -522,11 +508,10 @@
         <v>42250</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -535,23 +520,20 @@
         <v>43831</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
     </row>
